--- a/Modelos em Python/resultados_erros_rnn.xlsx
+++ b/Modelos em Python/resultados_erros_rnn.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>102.7667962848131</v>
+        <v>79.02976696752471</v>
       </c>
       <c r="D2" t="n">
-        <v>2.377119371916373</v>
+        <v>1.985299094888235</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6788504639255427</v>
+        <v>0.5664930615377446</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>123.9279873792142</v>
+        <v>101.2514314052992</v>
       </c>
       <c r="D3" t="n">
-        <v>2.67847468480013</v>
+        <v>2.354573679820235</v>
       </c>
       <c r="E3" t="n">
-        <v>0.765146468530014</v>
+        <v>0.6722061724381873</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>90.11346135260351</v>
+        <v>87.78423185416922</v>
       </c>
       <c r="D4" t="n">
-        <v>2.176541753280097</v>
+        <v>2.138087472299254</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6212428921623736</v>
+        <v>0.6100912855187155</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>71.8919017024858</v>
+        <v>88.91153870859819</v>
       </c>
       <c r="D5" t="n">
-        <v>1.853893026572526</v>
+        <v>2.156392641824059</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5288754272822047</v>
+        <v>0.6155077892310695</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>103.2517535827543</v>
+        <v>79.62917646346402</v>
       </c>
       <c r="D6" t="n">
-        <v>2.471760613990552</v>
+        <v>2.069622162074754</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6809630321382943</v>
+        <v>0.5695752203552239</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>124.4401078525256</v>
+        <v>101.8537007995334</v>
       </c>
       <c r="D7" t="n">
-        <v>2.783324848341219</v>
+        <v>2.450549765247287</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7670923363596501</v>
+        <v>0.6748554404003888</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>90.70090774085993</v>
+        <v>88.45240414204065</v>
       </c>
       <c r="D8" t="n">
-        <v>2.266639360695174</v>
+        <v>2.228525292150902</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6240329441061505</v>
+        <v>0.6133166794186394</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>72.461716475467</v>
+        <v>89.47888131562183</v>
       </c>
       <c r="D9" t="n">
-        <v>1.933503980347604</v>
+        <v>2.245468583793351</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5319663015700058</v>
+        <v>0.618225343787714</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>103.1820314451952</v>
+        <v>79.47778140084493</v>
       </c>
       <c r="D10" t="n">
-        <v>2.432454861586909</v>
+        <v>2.033600676423324</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6806598033666497</v>
+        <v>0.5687740004155546</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>124.3532938200887</v>
+        <v>101.73500320748</v>
       </c>
       <c r="D11" t="n">
-        <v>2.739766036503196</v>
+        <v>2.410286660417752</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7667713210385261</v>
+        <v>0.6743329941552901</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>90.57979737357464</v>
+        <v>88.29770008291746</v>
       </c>
       <c r="D12" t="n">
-        <v>2.228676323147901</v>
+        <v>2.190111937216424</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6234474577039115</v>
+        <v>0.6125545422149609</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>72.33486524794569</v>
+        <v>89.36412544858293</v>
       </c>
       <c r="D13" t="n">
-        <v>1.899615403224181</v>
+        <v>2.207970908394566</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5312420211845297</v>
+        <v>0.6176647145663834</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>102.9707806715459</v>
+        <v>79.27278826493161</v>
       </c>
       <c r="D14" t="n">
-        <v>2.413340119912788</v>
+        <v>2.017431169839348</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6797398722688553</v>
+        <v>0.567741289970138</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>124.1415563953151</v>
+        <v>101.5002775602544</v>
       </c>
       <c r="D15" t="n">
-        <v>2.718600716532911</v>
+        <v>2.391249039512158</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7659597400592686</v>
+        <v>0.6733019032242237</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>90.35543828630169</v>
+        <v>88.05709453117294</v>
       </c>
       <c r="D16" t="n">
-        <v>2.210947592364723</v>
+        <v>2.172580377119848</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6223920862368003</v>
+        <v>0.6114081422832657</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>72.12530708345218</v>
+        <v>89.14554311693347</v>
       </c>
       <c r="D17" t="n">
-        <v>1.884246255015482</v>
+        <v>2.190413203534966</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5301383974175201</v>
+        <v>0.616628448361092</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_rnn.xlsx
+++ b/Modelos em Python/resultados_erros_rnn.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>79.02976696752471</v>
+        <v>0.3406123484588079</v>
       </c>
       <c r="D2" t="n">
-        <v>1.985299094888235</v>
+        <v>0.01183169707381466</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5664930615377446</v>
+        <v>0.003509605800118913</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>101.2514314052992</v>
+        <v>0.08474134778119928</v>
       </c>
       <c r="D3" t="n">
-        <v>2.354573679820235</v>
+        <v>0.002912894417301806</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6722061724381873</v>
+        <v>0.001042153581110778</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>87.78423185416922</v>
+        <v>0.1417181730168932</v>
       </c>
       <c r="D4" t="n">
-        <v>2.138087472299254</v>
+        <v>0.004883611540037694</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6100912855187155</v>
+        <v>0.001506201833759833</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>88.91153870859819</v>
+        <v>0.09183016863154041</v>
       </c>
       <c r="D5" t="n">
-        <v>2.156392641824059</v>
+        <v>0.003105310414982658</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6155077892310695</v>
+        <v>0.001097429930698953</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>79.62917646346402</v>
+        <v>0.3169370188752189</v>
       </c>
       <c r="D6" t="n">
-        <v>2.069622162074754</v>
+        <v>0.01115095886317166</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5695752203552239</v>
+        <v>0.003602206394781694</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>101.8537007995334</v>
+        <v>0.07767321695176373</v>
       </c>
       <c r="D7" t="n">
-        <v>2.450549765247287</v>
+        <v>0.002632743330916971</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6748554404003888</v>
+        <v>0.001524082804461443</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>88.45240414204065</v>
+        <v>0.1795504687249208</v>
       </c>
       <c r="D8" t="n">
-        <v>2.228525292150902</v>
+        <v>0.006487529785043068</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6133166794186394</v>
+        <v>0.002222269309515453</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>89.47888131562183</v>
+        <v>0.1258349992325626</v>
       </c>
       <c r="D9" t="n">
-        <v>2.245468583793351</v>
+        <v>0.004475002404716285</v>
       </c>
       <c r="E9" t="n">
-        <v>0.618225343787714</v>
+        <v>0.001889185741641503</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>79.47778140084493</v>
+        <v>0.3323153552486992</v>
       </c>
       <c r="D10" t="n">
-        <v>2.033600676423324</v>
+        <v>0.01190290406898218</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5687740004155546</v>
+        <v>0.003345623312839715</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>101.73500320748</v>
+        <v>0.08123930139842792</v>
       </c>
       <c r="D11" t="n">
-        <v>2.410286660417752</v>
+        <v>0.002904315789540626</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6743329941552901</v>
+        <v>0.0008872905664576055</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>88.29770008291746</v>
+        <v>0.1393250419146287</v>
       </c>
       <c r="D12" t="n">
-        <v>2.190111937216424</v>
+        <v>0.004967488624431449</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6125545422149609</v>
+        <v>0.001445787755365442</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>89.36412544858293</v>
+        <v>0.0878432561675786</v>
       </c>
       <c r="D13" t="n">
-        <v>2.207970908394566</v>
+        <v>0.003114734729650474</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6176647145663834</v>
+        <v>0.0009480233775686814</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>79.27278826493161</v>
+        <v>0.3323255795502942</v>
       </c>
       <c r="D14" t="n">
-        <v>2.017431169839348</v>
+        <v>0.01163667066938805</v>
       </c>
       <c r="E14" t="n">
-        <v>0.567741289970138</v>
+        <v>0.003515493333212303</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>101.5002775602544</v>
+        <v>0.0821242891404349</v>
       </c>
       <c r="D15" t="n">
-        <v>2.391249039512158</v>
+        <v>0.002827344792708324</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6733019032242237</v>
+        <v>0.001190272867663746</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>88.05709453117294</v>
+        <v>0.1527752063426255</v>
       </c>
       <c r="D16" t="n">
-        <v>2.172580377119848</v>
+        <v>0.005378252246939171</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6114081422832657</v>
+        <v>0.001745743960009578</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>89.14554311693347</v>
+        <v>0.1015122822185396</v>
       </c>
       <c r="D17" t="n">
-        <v>2.190413203534966</v>
+        <v>0.003519033295234732</v>
       </c>
       <c r="E17" t="n">
-        <v>0.616628448361092</v>
+        <v>0.001368824573050205</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_rnn.xlsx
+++ b/Modelos em Python/resultados_erros_rnn.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3406123484588079</v>
+        <v>0.04735524702786474</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01183169707381466</v>
+        <v>0.001533849910336706</v>
       </c>
       <c r="E2" t="n">
-        <v>0.003509605800118913</v>
+        <v>0.0008759317149758982</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.08474134778119928</v>
+        <v>0.04937226648662277</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002912894417301806</v>
+        <v>0.001638051907421579</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001042153581110778</v>
+        <v>0.0007509537457830839</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1417181730168932</v>
+        <v>0.1595993117022907</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004883611540037694</v>
+        <v>0.005528148455417109</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001506201833759833</v>
+        <v>0.001740808018770711</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.09183016863154041</v>
+        <v>0.05717083014132877</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003105310414982658</v>
+        <v>0.001901070091573161</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001097429930698953</v>
+        <v>0.0009035559807172195</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3169370188752189</v>
+        <v>0.05515793466669915</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01115095886317166</v>
+        <v>0.001777447805260169</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003602206394781694</v>
+        <v>0.001664319162689426</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.07767321695176373</v>
+        <v>0.06485847608246834</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002632743330916971</v>
+        <v>0.002230693926714885</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001524082804461443</v>
+        <v>0.001478909746417434</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1795504687249208</v>
+        <v>0.1326956134359648</v>
       </c>
       <c r="D8" t="n">
-        <v>0.006487529785043068</v>
+        <v>0.004508470224611675</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002222269309515453</v>
+        <v>0.001996027748560264</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1258349992325626</v>
+        <v>0.0605343457554886</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004475002404716285</v>
+        <v>0.00199146096152489</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001889185741641503</v>
+        <v>0.001603780154122676</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.3323153552486992</v>
+        <v>0.04167905513808014</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01190290406898218</v>
+        <v>0.001474572422717405</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003345623312839715</v>
+        <v>0.0004524970373532419</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.08123930139842792</v>
+        <v>0.04636590082703977</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002904315789540626</v>
+        <v>0.001645179745418597</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0008872905664576055</v>
+        <v>0.0005105483182292259</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1393250419146287</v>
+        <v>0.1544179187793758</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004967488624431449</v>
+        <v>0.005525866235263487</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001445787755365442</v>
+        <v>0.001593818732722763</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0878432561675786</v>
+        <v>0.05176283902171654</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003114734729650474</v>
+        <v>0.001847387853531038</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0009480233775686814</v>
+        <v>0.0005647495139546818</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.3323255795502942</v>
+        <v>0.04891220830676831</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01163667066938805</v>
+        <v>0.001598920941102208</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003515493333212303</v>
+        <v>0.001136545252348581</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0821242891404349</v>
+        <v>0.05361540081209068</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002827344792708324</v>
+        <v>0.001817488427111665</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001190272867663746</v>
+        <v>0.001005159307538419</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1527752063426255</v>
+        <v>0.15077543073049</v>
       </c>
       <c r="D16" t="n">
-        <v>0.005378252246939171</v>
+        <v>0.005220809955554612</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001745743960009578</v>
+        <v>0.001802538819514541</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1015122822185396</v>
+        <v>0.05742861984148576</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003519033295234732</v>
+        <v>0.001920792358602017</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001368824573050205</v>
+        <v>0.001129424029171008</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_rnn.xlsx
+++ b/Modelos em Python/resultados_erros_rnn.xlsx
@@ -472,13 +472,15 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.04735524702786474</v>
+        <v>1.837578937319126</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001533849910336706</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0008759317149758982</v>
+        <v>1.528146424458614</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -493,13 +495,15 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.04937226648662277</v>
+        <v>1.829908094342655</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001638051907421579</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0007509537457830839</v>
+        <v>1.523377584391359</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -514,13 +518,15 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1595993117022907</v>
+        <v>1.838592312270973</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005528148455417109</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.001740808018770711</v>
+        <v>1.535783499661385</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -535,13 +541,15 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.05717083014132877</v>
+        <v>1.835052243063414</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001901070091573161</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0009035559807172195</v>
+        <v>1.528026903234043</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -556,13 +564,15 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.05515793466669915</v>
+        <v>45.71519777921386</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001777447805260169</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.001664319162689426</v>
+        <v>12.00547333024357</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -577,13 +587,15 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.06485847608246834</v>
+        <v>45.70320756148649</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002230693926714885</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.001478909746417434</v>
+        <v>12.06895658511869</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -598,13 +610,15 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1326956134359648</v>
+        <v>45.74589253379982</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004508470224611675</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.001996027748560264</v>
+        <v>12.10210914582851</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -619,13 +633,15 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0605343457554886</v>
+        <v>45.71808682919578</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00199146096152489</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.001603780154122676</v>
+        <v>12.05526832024437</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -640,13 +656,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.04167905513808014</v>
+        <v>0.6094354403346506</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001474572422717405</v>
+        <v>0.8842494398306867</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0004524970373532419</v>
+        <v>0.01044649137533928</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +677,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.04636590082703977</v>
+        <v>0.6087764487553704</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001645179745418597</v>
+        <v>0.8827097832087009</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0005105483182292259</v>
+        <v>0.01039270452044051</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +698,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1544179187793758</v>
+        <v>0.6180379237475384</v>
       </c>
       <c r="D12" t="n">
-        <v>0.005525866235263487</v>
+        <v>0.897803774860127</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001593818732722763</v>
+        <v>0.01059815552359652</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +719,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.05176283902171654</v>
+        <v>0.6119020314006201</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001847387853531038</v>
+        <v>0.8877014359292159</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0005647495139546818</v>
+        <v>0.01045756495836293</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +740,15 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.04891220830676831</v>
+        <v>14.84418602121399</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001598920941102208</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.001136545252348581</v>
+        <v>4.584915112851012</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -745,13 +763,15 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.05361540081209068</v>
+        <v>14.83619810830778</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001817488427111665</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.001005159307538419</v>
+        <v>4.601096671527441</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -766,13 +786,15 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.15077543073049</v>
+        <v>14.85517487551679</v>
       </c>
       <c r="D16" t="n">
-        <v>0.005220809955554612</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.001802538819514541</v>
+        <v>4.620109449362674</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -787,13 +809,15 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.05742861984148576</v>
+        <v>14.84398393791887</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001920792358602017</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.001129424029171008</v>
+        <v>4.600286298901896</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_rnn.xlsx
+++ b/Modelos em Python/resultados_erros_rnn.xlsx
@@ -472,15 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.837578937319126</v>
+        <v>0.1220553602407746</v>
       </c>
       <c r="D2" t="n">
-        <v>1.528146424458614</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.004152173595436699</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.001370240882848221</v>
       </c>
     </row>
     <row r="3">
@@ -495,15 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.829908094342655</v>
+        <v>0.1770487511139632</v>
       </c>
       <c r="D3" t="n">
-        <v>1.523377584391359</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.006094267368711226</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.001837554460329822</v>
       </c>
     </row>
     <row r="4">
@@ -518,15 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.838592312270973</v>
+        <v>0.3105978142100606</v>
       </c>
       <c r="D4" t="n">
-        <v>1.535783499661385</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.01079327628987759</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.003133501260106689</v>
       </c>
     </row>
     <row r="5">
@@ -541,15 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.835052243063414</v>
+        <v>0.1112408470778541</v>
       </c>
       <c r="D5" t="n">
-        <v>1.528026903234043</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.003769943966373339</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.001250938012622025</v>
       </c>
     </row>
     <row r="6">
@@ -564,15 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>45.71519777921386</v>
+        <v>0.153321886592948</v>
       </c>
       <c r="D6" t="n">
-        <v>12.00547333024357</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.005439934051699114</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.00212965971643058</v>
       </c>
     </row>
     <row r="7">
@@ -587,15 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>45.70320756148649</v>
+        <v>0.2140559032168195</v>
       </c>
       <c r="D7" t="n">
-        <v>12.06895658511869</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.007715679516997007</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.002446694399339202</v>
       </c>
     </row>
     <row r="8">
@@ -610,15 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>45.74589253379982</v>
+        <v>0.3455304294380534</v>
       </c>
       <c r="D8" t="n">
-        <v>12.10210914582851</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.01249954150331141</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.00363103810104861</v>
       </c>
     </row>
     <row r="9">
@@ -633,15 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>45.71808682919578</v>
+        <v>0.1426872208807687</v>
       </c>
       <c r="D9" t="n">
-        <v>12.05526832024437</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.005067074848244894</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.00197389690245308</v>
       </c>
     </row>
     <row r="10">
@@ -656,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6094354403346506</v>
+        <v>0.118142484896619</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8842494398306867</v>
+        <v>0.00418226560476297</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01044649137533928</v>
+        <v>0.001229190550863837</v>
       </c>
     </row>
     <row r="11">
@@ -677,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6087764487553704</v>
+        <v>0.1739836707361706</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8827097832087009</v>
+        <v>0.006177001659127343</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01039270452044051</v>
+        <v>0.001791628228667916</v>
       </c>
     </row>
     <row r="12">
@@ -698,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6180379237475384</v>
+        <v>0.3101610011020587</v>
       </c>
       <c r="D12" t="n">
-        <v>0.897803774860127</v>
+        <v>0.01102936670411384</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01059815552359652</v>
+        <v>0.003122300333875642</v>
       </c>
     </row>
     <row r="13">
@@ -719,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.6119020314006201</v>
+        <v>0.1070735781533543</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8877014359292159</v>
+        <v>0.003782177412951415</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01045756495836293</v>
+        <v>0.001132066229953261</v>
       </c>
     </row>
     <row r="14">
@@ -740,15 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14.84418602121399</v>
+        <v>0.1309233198836226</v>
       </c>
       <c r="D14" t="n">
-        <v>4.584915112851012</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.004544112489591368</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.001620695346897043</v>
       </c>
     </row>
     <row r="15">
@@ -763,15 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>14.83619810830778</v>
+        <v>0.1877635347783248</v>
       </c>
       <c r="D15" t="n">
-        <v>4.601096671527441</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.00659401586813456</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.002034479865281607</v>
       </c>
     </row>
     <row r="16">
@@ -786,15 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>14.85517487551679</v>
+        <v>0.3210548676952005</v>
       </c>
       <c r="D16" t="n">
-        <v>4.620109449362674</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.01133998190466893</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.003289744002898247</v>
       </c>
     </row>
     <row r="17">
@@ -809,15 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14.84398393791887</v>
+        <v>0.1201274448967532</v>
       </c>
       <c r="D17" t="n">
-        <v>4.600286298901896</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.004162211218512079</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.001492407830664295</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_rnn.xlsx
+++ b/Modelos em Python/resultados_erros_rnn.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1220553602407746</v>
+        <v>0.1039727114371258</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004152173595436699</v>
+        <v>0.003635745594271144</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001370240882848221</v>
+        <v>0.001110455774905831</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -493,19 +493,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1770487511139632</v>
+        <v>0.118549736167729</v>
       </c>
       <c r="D3" t="n">
-        <v>0.006094267368711226</v>
+        <v>0.004080938311241327</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001837554460329822</v>
+        <v>0.001236827814963294</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -514,19 +514,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.3105978142100606</v>
+        <v>0.1431679596779646</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01079327628987759</v>
+        <v>0.004965768685838519</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003133501260106689</v>
+        <v>0.001473764924864827</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -535,19 +535,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1112408470778541</v>
+        <v>0.05153110910713229</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003769943966373339</v>
+        <v>0.001711466168560303</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001250938012622025</v>
+        <v>0.000675541869759869</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -556,19 +556,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.153321886592948</v>
+        <v>0.1110255108672421</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005439934051699114</v>
+        <v>0.003775414794439686</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00212965971643058</v>
+        <v>0.002556759134420016</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2140559032168195</v>
+        <v>0.1231167679053704</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007715679516997007</v>
+        <v>0.004190915269681158</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002446694399339202</v>
+        <v>0.002312855477717483</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -598,19 +598,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3455304294380534</v>
+        <v>0.1485334785600657</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01249954150331141</v>
+        <v>0.005116619661504242</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00363103810104861</v>
+        <v>0.002511579239608259</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -619,19 +619,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1426872208807687</v>
+        <v>0.05696617067589903</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005067074848244894</v>
+        <v>0.001745728087420697</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00197389690245308</v>
+        <v>0.002530434374046113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -640,19 +640,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.118142484896619</v>
+        <v>0.1021745578912036</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00418226560476297</v>
+        <v>0.00346725425864063</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001229190550863837</v>
+        <v>0.001069842807103798</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -661,19 +661,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1739836707361706</v>
+        <v>0.118248827635607</v>
       </c>
       <c r="D11" t="n">
-        <v>0.006177001659127343</v>
+        <v>0.003944354012602454</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001791628228667916</v>
+        <v>0.001219602227977174</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -682,19 +682,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.3101610011020587</v>
+        <v>0.1423522416833658</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01102936670411384</v>
+        <v>0.004788269230748894</v>
       </c>
       <c r="E12" t="n">
-        <v>0.003122300333875642</v>
+        <v>0.001452943951321083</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -703,19 +703,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1070735781533543</v>
+        <v>0.05170004107309945</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003782177412951415</v>
+        <v>0.001661192092708894</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001132066229953261</v>
+        <v>0.0006317785345450733</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -724,19 +724,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1309233198836226</v>
+        <v>0.1058369789839797</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004544112489591368</v>
+        <v>0.003654061525042995</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001620695346897043</v>
+        <v>0.001676904383016931</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -745,19 +745,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1877635347783248</v>
+        <v>0.1198778241266084</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00659401586813456</v>
+        <v>0.004094812731168107</v>
       </c>
       <c r="E15" t="n">
-        <v>0.002034479865281607</v>
+        <v>0.001633944238271156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -766,19 +766,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3210548676952005</v>
+        <v>0.1446635410341142</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01133998190466893</v>
+        <v>0.004986178308926057</v>
       </c>
       <c r="E16" t="n">
-        <v>0.003289744002898247</v>
+        <v>0.001845090986508178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1201274448967532</v>
+        <v>0.0531854013557069</v>
       </c>
       <c r="D17" t="n">
-        <v>0.004162211218512079</v>
+        <v>0.001714707385281316</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001492407830664295</v>
+        <v>0.001494157102442986</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_rnn.xlsx
+++ b/Modelos em Python/resultados_erros_rnn.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1039727114371258</v>
+        <v>0.2535778796116709</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003635745594271144</v>
+        <v>0.008765683112657659</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001110455774905831</v>
+        <v>0.002569636692149865</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.118549736167729</v>
+        <v>0.1586611514028129</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004080938311241327</v>
+        <v>0.005399448266332606</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001236827814963294</v>
+        <v>0.001663197163386006</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1431679596779646</v>
+        <v>0.279210667815357</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004965768685838519</v>
+        <v>0.009592319131383496</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001473764924864827</v>
+        <v>0.002831052234967781</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.05153110910713229</v>
+        <v>0.05623329612016595</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001711466168560303</v>
+        <v>0.001796578448546744</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000675541869759869</v>
+        <v>0.0007462013323732353</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1110255108672421</v>
+        <v>0.2593132490436211</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003775414794439686</v>
+        <v>0.008994368000449575</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002556759134420016</v>
+        <v>0.003800008483469185</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1231167679053704</v>
+        <v>0.1650241835845216</v>
       </c>
       <c r="D7" t="n">
-        <v>0.004190915269681158</v>
+        <v>0.005518392096890998</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002312855477717483</v>
+        <v>0.003671135258864428</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1485334785600657</v>
+        <v>0.2835820176328925</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005116619661504242</v>
+        <v>0.009805201205754656</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002511579239608259</v>
+        <v>0.00404052248071891</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.05696617067589903</v>
+        <v>0.06113436595720285</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001745728087420697</v>
+        <v>0.001799604260402191</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002530434374046113</v>
+        <v>0.003074112093987128</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1021745578912036</v>
+        <v>0.2568988667280103</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00346725425864063</v>
+        <v>0.008632312999955498</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001069842807103798</v>
+        <v>0.002588620045521327</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.118248827635607</v>
+        <v>0.1624226971075371</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003944354012602454</v>
+        <v>0.005371950909987402</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001219602227977174</v>
+        <v>0.001666091715634067</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1423522416833658</v>
+        <v>0.2837526586640867</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004788269230748894</v>
+        <v>0.009469783821253693</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001452943951321083</v>
+        <v>0.002864409186781825</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.05170004107309945</v>
+        <v>0.06021917624057881</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001661192092708894</v>
+        <v>0.001876580000798458</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0006317785345450733</v>
+        <v>0.0007164815341473962</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1058369789839797</v>
+        <v>0.2557635444045109</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003654061525042995</v>
+        <v>0.008815622592663577</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001676904383016931</v>
+        <v>0.00299466686873635</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1198778241266084</v>
+        <v>0.161096805540065</v>
       </c>
       <c r="D15" t="n">
-        <v>0.004094812731168107</v>
+        <v>0.005431284626458772</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001633944238271156</v>
+        <v>0.002445633090517635</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1446635410341142</v>
+        <v>0.2811580305332384</v>
       </c>
       <c r="D16" t="n">
-        <v>0.004986178308926057</v>
+        <v>0.009639034229501336</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001845090986508178</v>
+        <v>0.00324575612402545</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0531854013557069</v>
+        <v>0.05826173397364589</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001714707385281316</v>
+        <v>0.001808686113231001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001494157102442986</v>
+        <v>0.001794140011275847</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_rnn.xlsx
+++ b/Modelos em Python/resultados_erros_rnn.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.07198133058418762</v>
+        <v>0.2146302408866557</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002480884802083895</v>
+        <v>0.007475354296792735</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000853423469771623</v>
+        <v>0.002178347375744707</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.08279243018063603</v>
+        <v>0.06400985435464757</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002893285682334542</v>
+        <v>0.002208039832756659</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0009652628238553843</v>
+        <v>0.0008376263816528462</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1341144939087809</v>
+        <v>0.02123881042366514</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004564023551239172</v>
+        <v>0.0006858171235285532</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001442731494781338</v>
+        <v>0.0005338940633910633</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1646287192460065</v>
+        <v>0.07023035184131647</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00577179427249938</v>
+        <v>0.002418202153284405</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001696794862412233</v>
+        <v>0.0008386351774210141</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.07919800786328952</v>
+        <v>0.2213956969854932</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002574606706643934</v>
+        <v>0.007708645136791285</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002798320441769517</v>
+        <v>0.003408887654537602</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.09185057865649794</v>
+        <v>0.07297780802050036</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003026964338147325</v>
+        <v>0.002304998253923372</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003230350216952611</v>
+        <v>0.003269804357244041</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1401115162365239</v>
+        <v>0.02854329411257181</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004673985657026179</v>
+        <v>0.000715101561166271</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00325786381411063</v>
+        <v>0.003030505752634824</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1731057159387012</v>
+        <v>0.07792439301213738</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005988417672684648</v>
+        <v>0.002515181085558611</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003279603314870573</v>
+        <v>0.003038667968966571</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.07042333720148973</v>
+        <v>0.2162593166942463</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002347663962204409</v>
+        <v>0.007324613360448901</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0007962432286997692</v>
+        <v>0.002179822239285822</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.08332318101084672</v>
+        <v>0.06243303211258866</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002837326130087503</v>
+        <v>0.00208844455271121</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000916556077741977</v>
+        <v>0.0007618362120241757</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1343016842172139</v>
+        <v>0.0202812011602809</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004423603105681117</v>
+        <v>0.0006200283875136875</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001415230824548848</v>
+        <v>0.0004327946025212622</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1650914963907381</v>
+        <v>0.07141628727845922</v>
       </c>
       <c r="D13" t="n">
-        <v>0.005633209099635463</v>
+        <v>0.002392860149977599</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001677796318573492</v>
+        <v>0.0007937169942134635</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.07392838655316838</v>
+        <v>0.2168880953363537</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002490353203638954</v>
+        <v>0.007524243831607308</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001686999679429827</v>
+        <v>0.002609377208683015</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.08558438419981837</v>
+        <v>0.0664796972642251</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002925558248933436</v>
+        <v>0.002220386779345058</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001941686568185234</v>
+        <v>0.001918821524522154</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1359399432983215</v>
+        <v>0.02329626135560789</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00457735647197701</v>
+        <v>0.0006853930006668374</v>
       </c>
       <c r="E16" t="n">
-        <v>0.002151819373986695</v>
+        <v>0.001715004577551399</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1672367984578272</v>
+        <v>0.07270476538214039</v>
       </c>
       <c r="D17" t="n">
-        <v>0.005817384946266003</v>
+        <v>0.002443750282085564</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002287645670781183</v>
+        <v>0.001803412633018941</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_rnn.xlsx
+++ b/Modelos em Python/resultados_erros_rnn.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2146302408866557</v>
+        <v>0.1287866444003696</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007475354296792735</v>
+        <v>0.004409330071258001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002178347375744707</v>
+        <v>0.001351455156049255</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.06400985435464757</v>
+        <v>0.06901345941646264</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002208039832756659</v>
+        <v>0.002253830621206561</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0008376263816528462</v>
+        <v>0.0008438004377388983</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.02123881042366514</v>
+        <v>0.04125901766736286</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0006858171235285532</v>
+        <v>0.001380894726458929</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0005338940633910633</v>
+        <v>0.000631610054310421</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.07023035184131647</v>
+        <v>0.1416155461522786</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002418202153284405</v>
+        <v>0.004898068980688569</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0008386351774210141</v>
+        <v>0.001481790439805651</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2213956969854932</v>
+        <v>0.1345482509187515</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007708645136791285</v>
+        <v>0.004522917880426008</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003408887654537602</v>
+        <v>0.003033451893516856</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.07297780802050036</v>
+        <v>0.07417085829759297</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002304998253923372</v>
+        <v>0.002275644247582232</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003269804357244041</v>
+        <v>0.003112693019003674</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.02854329411257181</v>
+        <v>0.04862416177318916</v>
       </c>
       <c r="D8" t="n">
-        <v>0.000715101561166271</v>
+        <v>0.001436281208758892</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003030505752634824</v>
+        <v>0.003053906801591328</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.07792439301213738</v>
+        <v>0.1491620798006096</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002515181085558611</v>
+        <v>0.005054805568807905</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003038667968966571</v>
+        <v>0.003352957815832983</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2162593166942463</v>
+        <v>0.1315712547991391</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007324613360448901</v>
+        <v>0.004381722933508356</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002179822239285822</v>
+        <v>0.001350596328324093</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.06243303211258866</v>
+        <v>0.07277226337853816</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00208844455271121</v>
+        <v>0.002314391279045631</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0007618362120241757</v>
+        <v>0.0008215627785839639</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0202812011602809</v>
+        <v>0.04304230065566463</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0006200283875136875</v>
+        <v>0.001405290181035175</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0004327946025212622</v>
+        <v>0.0005656746639414565</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.07141628727845922</v>
+        <v>0.1432115042323544</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002392860149977599</v>
+        <v>0.004815686614086712</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0007937169942134635</v>
+        <v>0.001465999565304963</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2168880953363537</v>
+        <v>0.1309050906265604</v>
       </c>
       <c r="D14" t="n">
-        <v>0.007524243831607308</v>
+        <v>0.004439544133802022</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002609377208683015</v>
+        <v>0.002009700062247751</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0664796972642251</v>
+        <v>0.07108701220935576</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002220386779345058</v>
+        <v>0.002268853422686765</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001918821524522154</v>
+        <v>0.001843929809384755</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.02329626135560789</v>
+        <v>0.04371838051033929</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0006853930006668374</v>
+        <v>0.001400927187794761</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001715004577551399</v>
+        <v>0.001751087658238325</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.07270476538214039</v>
+        <v>0.1441031053669631</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002443750282085564</v>
+        <v>0.004933560379984825</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001803412633018941</v>
+        <v>0.002214357662404768</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_rnn.xlsx
+++ b/Modelos em Python/resultados_erros_rnn.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1287866444003696</v>
+        <v>0.1219819464388646</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004409330071258001</v>
+        <v>0.004117111994741014</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351455156049255</v>
+        <v>0.001304115405317439</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.06901345941646264</v>
+        <v>0.2045379837803901</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002253830621206561</v>
+        <v>0.007007697043591891</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0008438004377388983</v>
+        <v>0.002099393739351197</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.04125901766736286</v>
+        <v>0.07334265805959055</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001380894726458929</v>
+        <v>0.002430050271265953</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000631610054310421</v>
+        <v>0.0008924454688570944</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1416155461522786</v>
+        <v>0.244364553840343</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004898068980688569</v>
+        <v>0.008422485241781096</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001481790439805651</v>
+        <v>0.002484713329529121</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1345482509187515</v>
+        <v>0.1272578378486011</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004522917880426008</v>
+        <v>0.004194988802696149</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003033451893516856</v>
+        <v>0.003219255486741958</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.07417085829759297</v>
+        <v>0.2105040295337892</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002275644247582232</v>
+        <v>0.007171765083207226</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003112693019003674</v>
+        <v>0.003809945470370586</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.04862416177318916</v>
+        <v>0.07977315645454003</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001436281208758892</v>
+        <v>0.00247444494473111</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003053906801591328</v>
+        <v>0.003321630991614327</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1491620798006096</v>
+        <v>0.2504692705586129</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005054805568807905</v>
+        <v>0.008636623195806383</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003352957815832983</v>
+        <v>0.003969976440519688</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1315712547991391</v>
+        <v>0.1257850018625566</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004381722933508356</v>
+        <v>0.004127859583301443</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001350596328324093</v>
+        <v>0.001306584412453891</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.07277226337853816</v>
+        <v>0.208169531830339</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002314391279045631</v>
+        <v>0.006926347564980296</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0008215627785839639</v>
+        <v>0.002112201699459599</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.04304230065566463</v>
+        <v>0.07666474367377792</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001405290181035175</v>
+        <v>0.002472246368709896</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0005656746639414565</v>
+        <v>0.0008586079665413219</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1432115042323544</v>
+        <v>0.2475446054263027</v>
       </c>
       <c r="D13" t="n">
-        <v>0.004815686614086712</v>
+        <v>0.008285635109585351</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001465999565304963</v>
+        <v>0.002498887337457874</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1309050906265604</v>
+        <v>0.1240972446979276</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004439544133802022</v>
+        <v>0.004141981428262238</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002009700062247751</v>
+        <v>0.002073809009503943</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.07108701220935576</v>
+        <v>0.2068363338484271</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002268853422686765</v>
+        <v>0.00704553264530537</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001843929809384755</v>
+        <v>0.002729048474930883</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.04371838051033929</v>
+        <v>0.07573703119472643</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001400927187794761</v>
+        <v>0.002449276947754728</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001751087658238325</v>
+        <v>0.001964543141658231</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1441031053669631</v>
+        <v>0.2466413009199175</v>
       </c>
       <c r="D17" t="n">
-        <v>0.004933560379984825</v>
+        <v>0.008467573122732743</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002214357662404768</v>
+        <v>0.003009980383255729</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_rnn.xlsx
+++ b/Modelos em Python/resultados_erros_rnn.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1219819464388646</v>
+        <v>0.1909287232740331</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004117111994741014</v>
+        <v>0.006582724394430883</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001304115405317439</v>
+        <v>0.001941118065786682</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2045379837803901</v>
+        <v>0.05117834476338104</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007007697043591891</v>
+        <v>0.001681366788820981</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002099393739351197</v>
+        <v>0.0006215564657387187</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.07334265805959055</v>
+        <v>0.06628792615712539</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002430050271265953</v>
+        <v>0.002353668589520056</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0008924454688570944</v>
+        <v>0.0007639789560351453</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.244364553840343</v>
+        <v>0.1650347708157988</v>
       </c>
       <c r="D5" t="n">
-        <v>0.008422485241781096</v>
+        <v>0.00568177420729479</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002484713329529121</v>
+        <v>0.001699689521807559</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1272578378486011</v>
+        <v>0.1947927690148551</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004194988802696149</v>
+        <v>0.006749417707224819</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003219255486741958</v>
+        <v>0.002893978848490501</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2105040295337892</v>
+        <v>0.05433661628209265</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007171765083207226</v>
+        <v>0.001700307227868147</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003809945470370586</v>
+        <v>0.002079151835434995</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.07977315645454003</v>
+        <v>0.07380304185904463</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00247444494473111</v>
+        <v>0.002476879857396907</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003321630991614327</v>
+        <v>0.002361558733656434</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2504692705586129</v>
+        <v>0.1704518253587695</v>
       </c>
       <c r="D9" t="n">
-        <v>0.008636623195806383</v>
+        <v>0.005836099817064839</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003969976440519688</v>
+        <v>0.003102072817920425</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1257850018625566</v>
+        <v>0.1935320707704785</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004127859583301443</v>
+        <v>0.006482944360228397</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001306584412453891</v>
+        <v>0.001957007385978972</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.208169531830339</v>
+        <v>0.05425410585922937</v>
       </c>
       <c r="D11" t="n">
-        <v>0.006926347564980296</v>
+        <v>0.001739899892492096</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002112201699459599</v>
+        <v>0.0006148625712664034</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.07666474367377792</v>
+        <v>0.06373312469079177</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002472246368709896</v>
+        <v>0.002196307868506536</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0008586079665413219</v>
+        <v>0.000703080190270103</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2475446054263027</v>
+        <v>0.1670891048834529</v>
       </c>
       <c r="D13" t="n">
-        <v>0.008285635109585351</v>
+        <v>0.005582774652542507</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002498887337457874</v>
+        <v>0.001699183282833292</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1240972446979276</v>
+        <v>0.1924524819698601</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004141981428262238</v>
+        <v>0.006618767444394302</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002073809009503943</v>
+        <v>0.002271314136153503</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2068363338484271</v>
+        <v>0.05255649082787043</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00704553264530537</v>
+        <v>0.001695243720185905</v>
       </c>
       <c r="E15" t="n">
-        <v>0.002729048474930883</v>
+        <v>0.001251489357997342</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.07573703119472643</v>
+        <v>0.06818497188524278</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002449276947754728</v>
+        <v>0.002368605000122866</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001964543141658231</v>
+        <v>0.001438491950529089</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2466413009199175</v>
+        <v>0.166947608231639</v>
       </c>
       <c r="D17" t="n">
-        <v>0.008467573122732743</v>
+        <v>0.005714215927575226</v>
       </c>
       <c r="E17" t="n">
-        <v>0.003009980383255729</v>
+        <v>0.0022156332508777</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_rnn.xlsx
+++ b/Modelos em Python/resultados_erros_rnn.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1909287232740331</v>
+        <v>0.1151350015811855</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006582724394430883</v>
+        <v>0.003836557797592512</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001941118065786682</v>
+        <v>0.0012395144697555</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.05117834476338104</v>
+        <v>0.05286512974316843</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001681366788820981</v>
+        <v>0.001659083034717157</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0006215564657387187</v>
+        <v>0.0007280446822166233</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.06628792615712539</v>
+        <v>0.3520356134925257</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002353668589520056</v>
+        <v>0.01223156432011057</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0007639789560351453</v>
+        <v>0.0035449117389034</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1650347708157988</v>
+        <v>0.3547788852979181</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00568177420729479</v>
+        <v>0.01218331777412844</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001699689521807559</v>
+        <v>0.003586644254342158</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1947927690148551</v>
+        <v>0.1185338555507958</v>
       </c>
       <c r="D6" t="n">
-        <v>0.006749417707224819</v>
+        <v>0.003878170889050239</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002893978848490501</v>
+        <v>0.002926057328734439</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.05433661628209265</v>
+        <v>0.05718289290088653</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001700307227868147</v>
+        <v>0.001646314473212933</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002079151835434995</v>
+        <v>0.003049294055353441</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.07380304185904463</v>
+        <v>0.3574795416641355</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002476879857396907</v>
+        <v>0.01256671236090636</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002361558733656434</v>
+        <v>0.00443998849914292</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1704518253587695</v>
+        <v>0.3568929005194277</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005836099817064839</v>
+        <v>0.01243302708504793</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003102072817920425</v>
+        <v>0.004438368620866401</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1935320707704785</v>
+        <v>0.1197616575196842</v>
       </c>
       <c r="D10" t="n">
-        <v>0.006482944360228397</v>
+        <v>0.003879812047571928</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001957007385978972</v>
+        <v>0.001256321760503647</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.05425410585922937</v>
+        <v>0.05710453386971579</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001739899892492096</v>
+        <v>0.001748347957912776</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0006148625712664034</v>
+        <v>0.0007016174725138561</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.06373312469079177</v>
+        <v>0.3545838848674477</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002196307868506536</v>
+        <v>0.01196949262304108</v>
       </c>
       <c r="E12" t="n">
-        <v>0.000703080190270103</v>
+        <v>0.003564981068818859</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1670891048834529</v>
+        <v>0.3602823000712355</v>
       </c>
       <c r="D13" t="n">
-        <v>0.005582774652542507</v>
+        <v>0.01201262237876957</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001699183282833292</v>
+        <v>0.003638167925153003</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1924524819698601</v>
+        <v>0.1168024460701353</v>
       </c>
       <c r="D14" t="n">
-        <v>0.006618767444394302</v>
+        <v>0.003855098072503639</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002271314136153503</v>
+        <v>0.001910511364512469</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.05255649082787043</v>
+        <v>0.05475405448021585</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001695243720185905</v>
+        <v>0.001667748856471018</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001251489357997342</v>
+        <v>0.001776345538039128</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.06818497188524278</v>
+        <v>0.3540256625782942</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002368605000122866</v>
+        <v>0.01229542754220576</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001438491950529089</v>
+        <v>0.003838055242289645</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.166947608231639</v>
+        <v>0.3561835910654346</v>
       </c>
       <c r="D17" t="n">
-        <v>0.005714215927575226</v>
+        <v>0.01223433969187119</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0022156332508777</v>
+        <v>0.003868696923096002</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_rnn.xlsx
+++ b/Modelos em Python/resultados_erros_rnn.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1151350015811855</v>
+        <v>0.2582587070930112</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003836557797592512</v>
+        <v>0.008858467036492962</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0012395144697555</v>
+        <v>0.002621161057536423</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.05286512974316843</v>
+        <v>0.1983432661894703</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001659083034717157</v>
+        <v>0.006774801850513298</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0007280446822166233</v>
+        <v>0.002042417810377954</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.3520356134925257</v>
+        <v>0.2096406211243017</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01223156432011057</v>
+        <v>0.007138360861219584</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0035449117389034</v>
+        <v>0.002149529926014278</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3547788852979181</v>
+        <v>0.3986605121039202</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01218331777412844</v>
+        <v>0.01372577772425283</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003586644254342158</v>
+        <v>0.004023562493470378</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1185338555507958</v>
+        <v>0.2619220127141447</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003878170889050239</v>
+        <v>0.009044884739662274</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002926057328734439</v>
+        <v>0.003704838058653116</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.05718289290088653</v>
+        <v>0.2040938317603906</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001646314473212933</v>
+        <v>0.006921274859981888</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003049294055353441</v>
+        <v>0.003762016052828531</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3574795416641355</v>
+        <v>0.2136812433630942</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01256671236090636</v>
+        <v>0.007271227204847273</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00443998849914292</v>
+        <v>0.003578185690582611</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3568929005194277</v>
+        <v>0.4013710451820383</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01243302708504793</v>
+        <v>0.01402112825165825</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004438368620866401</v>
+        <v>0.004869926186966396</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1197616575196842</v>
+        <v>0.263217516019562</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003879812047571928</v>
+        <v>0.008776871661385662</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001256321760503647</v>
+        <v>0.002659117872833444</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.05710453386971579</v>
+        <v>0.2027035743485914</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001748347957912776</v>
+        <v>0.006728575271438493</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0007016174725138561</v>
+        <v>0.002059499952013709</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.3545838848674477</v>
+        <v>0.2147105800753512</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01196949262304108</v>
+        <v>0.007104049130356949</v>
       </c>
       <c r="E12" t="n">
-        <v>0.003564981068818859</v>
+        <v>0.002180880237737142</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3602823000712355</v>
+        <v>0.4044328884681959</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01201262237876957</v>
+        <v>0.01352383079112815</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003638167925153003</v>
+        <v>0.004077081035735041</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1168024460701353</v>
+        <v>0.2600519930162579</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003855098072503639</v>
+        <v>0.00890297362309397</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001910511364512469</v>
+        <v>0.002992541053469462</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.05475405448021585</v>
+        <v>0.2006789903716785</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001667748856471018</v>
+        <v>0.006812275587090509</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001776345538039128</v>
+        <v>0.002678786304683065</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3540256625782942</v>
+        <v>0.2115626711423508</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01229542754220576</v>
+        <v>0.007173420311775726</v>
       </c>
       <c r="E16" t="n">
-        <v>0.003838055242289645</v>
+        <v>0.002663559953497604</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3561835910654346</v>
+        <v>0.400281840240733</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01223433969187119</v>
+        <v>0.01378611797625691</v>
       </c>
       <c r="E17" t="n">
-        <v>0.003868696923096002</v>
+        <v>0.004302099210731446</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_rnn.xlsx
+++ b/Modelos em Python/resultados_erros_rnn.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23.36473680690187</v>
+        <v>21.66887444860928</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8698366673574417</v>
+        <v>0.7891394775702523</v>
       </c>
       <c r="E2" t="n">
-        <v>1.283791367103151</v>
+        <v>1.179191762834218</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50.20210178996927</v>
+        <v>46.37560442243484</v>
       </c>
       <c r="D3" t="n">
-        <v>2.249462900838947</v>
+        <v>2.018603945593663</v>
       </c>
       <c r="E3" t="n">
-        <v>3.422293273243763</v>
+        <v>3.102338198859253</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>51.27753136727318</v>
+        <v>47.00958347803784</v>
       </c>
       <c r="D4" t="n">
-        <v>2.319078929725346</v>
+        <v>2.058198023774261</v>
       </c>
       <c r="E4" t="n">
-        <v>3.534481946613854</v>
+        <v>3.171596540666581</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>51.13102614685234</v>
+        <v>46.23469230536999</v>
       </c>
       <c r="D5" t="n">
-        <v>2.309981061076564</v>
+        <v>2.012434776169254</v>
       </c>
       <c r="E5" t="n">
-        <v>3.522377260121711</v>
+        <v>3.108679785247838</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.2630616798816</v>
+        <v>20.38265589895019</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8559129499246214</v>
+        <v>0.7672444679606929</v>
       </c>
       <c r="E6" t="n">
-        <v>1.396519462939626</v>
+        <v>1.267151397846634</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>47.26791871630413</v>
+        <v>43.39275398576498</v>
       </c>
       <c r="D7" t="n">
-        <v>2.153070755222122</v>
+        <v>1.921219520782458</v>
       </c>
       <c r="E7" t="n">
-        <v>3.606180713071105</v>
+        <v>3.249034203920165</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>48.27633647124097</v>
+        <v>43.96010017597122</v>
       </c>
       <c r="D8" t="n">
-        <v>2.217313219697298</v>
+        <v>1.956068949337035</v>
       </c>
       <c r="E8" t="n">
-        <v>3.719405466115329</v>
+        <v>3.315812643224894</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>48.12494662010626</v>
+        <v>43.17530325208476</v>
       </c>
       <c r="D9" t="n">
-        <v>2.207978900573724</v>
+        <v>1.910150647764313</v>
       </c>
       <c r="E9" t="n">
-        <v>3.705481921421076</v>
+        <v>3.245616048024202</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>24.50959871167712</v>
+        <v>22.97352747052331</v>
       </c>
       <c r="D10" t="n">
-        <v>0.890430511963693</v>
+        <v>0.8173534398753449</v>
       </c>
       <c r="E10" t="n">
-        <v>1.291760467821855</v>
+        <v>1.198748843517266</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>53.00262232575853</v>
+        <v>49.21894634425978</v>
       </c>
       <c r="D11" t="n">
-        <v>2.347234972340692</v>
+        <v>2.117297582222013</v>
       </c>
       <c r="E11" t="n">
-        <v>3.507460399466073</v>
+        <v>3.193001951723991</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>54.13922341951795</v>
+        <v>49.91313282593821</v>
       </c>
       <c r="D12" t="n">
-        <v>2.421521313084518</v>
+        <v>2.161001695208388</v>
       </c>
       <c r="E12" t="n">
-        <v>3.624848269155809</v>
+        <v>3.267213972306771</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>53.9972552251978</v>
+        <v>49.14677210917831</v>
       </c>
       <c r="D13" t="n">
-        <v>2.412640658389098</v>
+        <v>2.115377007918702</v>
       </c>
       <c r="E13" t="n">
-        <v>3.613213381608049</v>
+        <v>3.205273290950763</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23.19448456054904</v>
+        <v>21.46562498717149</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8685422785994316</v>
+        <v>0.7865203007377047</v>
       </c>
       <c r="E14" t="n">
-        <v>1.308700472360103</v>
+        <v>1.199666111595038</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>49.71383997618884</v>
+        <v>45.87873608499238</v>
       </c>
       <c r="D15" t="n">
-        <v>2.234230700447847</v>
+        <v>2.003203053566136</v>
       </c>
       <c r="E15" t="n">
-        <v>3.466857435691942</v>
+        <v>3.13947990943957</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>50.77772820677897</v>
+        <v>46.50115252295207</v>
       </c>
       <c r="D16" t="n">
-        <v>2.302888359405477</v>
+        <v>2.041949014517559</v>
       </c>
       <c r="E16" t="n">
-        <v>3.579545292522639</v>
+        <v>3.208492803144895</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>50.63039265340736</v>
+        <v>45.72448363090371</v>
       </c>
       <c r="D17" t="n">
-        <v>2.293749959559191</v>
+        <v>1.996158645402323</v>
       </c>
       <c r="E17" t="n">
-        <v>3.567089817764983</v>
+        <v>3.144116496053768</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_rnn.xlsx
+++ b/Modelos em Python/resultados_erros_rnn.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.66887444860928</v>
+        <v>22.71519844048562</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7891394775702523</v>
+        <v>0.841570557919367</v>
       </c>
       <c r="E2" t="n">
-        <v>1.179191762834218</v>
+        <v>1.242664811225704</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46.37560442243484</v>
+        <v>50.38963102796231</v>
       </c>
       <c r="D3" t="n">
-        <v>2.018603945593663</v>
+        <v>2.26086853284205</v>
       </c>
       <c r="E3" t="n">
-        <v>3.102338198859253</v>
+        <v>3.43681052644212</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>47.00958347803784</v>
+        <v>51.60103972841861</v>
       </c>
       <c r="D4" t="n">
-        <v>2.058198023774261</v>
+        <v>2.339484585890272</v>
       </c>
       <c r="E4" t="n">
-        <v>3.171596540666581</v>
+        <v>3.5631371909671</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>46.23469230536999</v>
+        <v>51.36007809733395</v>
       </c>
       <c r="D5" t="n">
-        <v>2.012434776169254</v>
+        <v>2.324414086272607</v>
       </c>
       <c r="E5" t="n">
-        <v>3.108679785247838</v>
+        <v>3.542764846126913</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.38265589895019</v>
+        <v>21.62393333308713</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7672444679606929</v>
+        <v>0.827538395451801</v>
       </c>
       <c r="E6" t="n">
-        <v>1.267151397846634</v>
+        <v>1.35085020579131</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>43.39275398576498</v>
+        <v>47.46547231314563</v>
       </c>
       <c r="D7" t="n">
-        <v>1.921219520782458</v>
+        <v>2.165046257405356</v>
       </c>
       <c r="E7" t="n">
-        <v>3.249034203920165</v>
+        <v>3.623459467144274</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>43.96010017597122</v>
+        <v>48.603041662572</v>
       </c>
       <c r="D8" t="n">
-        <v>1.956068949337035</v>
+        <v>2.237708895735262</v>
       </c>
       <c r="E8" t="n">
-        <v>3.315812643224894</v>
+        <v>3.751192768857555</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>43.17530325208476</v>
+        <v>48.35558520136347</v>
       </c>
       <c r="D9" t="n">
-        <v>1.910150647764313</v>
+        <v>2.222356890495998</v>
       </c>
       <c r="E9" t="n">
-        <v>3.245616048024202</v>
+        <v>3.727999845647979</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22.97352747052331</v>
+        <v>23.84534141273319</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8173534398753449</v>
+        <v>0.8620148156061496</v>
       </c>
       <c r="E10" t="n">
-        <v>1.198748843517266</v>
+        <v>1.251062595157076</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>49.21894634425978</v>
+        <v>53.18074048097179</v>
       </c>
       <c r="D11" t="n">
-        <v>2.117297582222013</v>
+        <v>2.358117967151497</v>
       </c>
       <c r="E11" t="n">
-        <v>3.193001951723991</v>
+        <v>3.521044711045496</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>49.91313282593821</v>
+        <v>54.46013915984379</v>
       </c>
       <c r="D12" t="n">
-        <v>2.161001695208388</v>
+        <v>2.441942538526949</v>
       </c>
       <c r="E12" t="n">
-        <v>3.267213972306771</v>
+        <v>3.653130539413508</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>49.14677210917831</v>
+        <v>54.22513043860219</v>
       </c>
       <c r="D13" t="n">
-        <v>2.115377007918702</v>
+        <v>2.427129006900935</v>
       </c>
       <c r="E13" t="n">
-        <v>3.205273290950763</v>
+        <v>3.633398633647075</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21.46562498717149</v>
+        <v>22.54600884810383</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7865203007377047</v>
+        <v>0.8402226913085526</v>
       </c>
       <c r="E14" t="n">
-        <v>1.199666111595038</v>
+        <v>1.266623277476028</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>45.87873608499238</v>
+        <v>49.90305923781154</v>
       </c>
       <c r="D15" t="n">
-        <v>2.003203053566136</v>
+        <v>2.245734139394167</v>
       </c>
       <c r="E15" t="n">
-        <v>3.13947990943957</v>
+        <v>3.481894346210957</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>46.50115252295207</v>
+        <v>51.10183274125587</v>
       </c>
       <c r="D16" t="n">
-        <v>2.041949014517559</v>
+        <v>2.323293201394882</v>
       </c>
       <c r="E16" t="n">
-        <v>3.208492803144895</v>
+        <v>3.608831719909732</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>45.72448363090371</v>
+        <v>50.85975589329749</v>
       </c>
       <c r="D17" t="n">
-        <v>1.996158645402323</v>
+        <v>2.308174218064424</v>
       </c>
       <c r="E17" t="n">
-        <v>3.144116496053768</v>
+        <v>3.587909870139113</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_rnn.xlsx
+++ b/Modelos em Python/resultados_erros_rnn.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22.71519844048562</v>
+        <v>23.24213719576251</v>
       </c>
       <c r="D2" t="n">
-        <v>0.841570557919367</v>
+        <v>0.8655062152556483</v>
       </c>
       <c r="E2" t="n">
-        <v>1.242664811225704</v>
+        <v>1.276974352202646</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50.38963102796231</v>
+        <v>49.9491464081308</v>
       </c>
       <c r="D3" t="n">
-        <v>2.26086853284205</v>
+        <v>2.233901063975781</v>
       </c>
       <c r="E3" t="n">
-        <v>3.43681052644212</v>
+        <v>3.401041089968618</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>51.60103972841861</v>
+        <v>50.921672073899</v>
       </c>
       <c r="D4" t="n">
-        <v>2.339484585890272</v>
+        <v>2.296777948202574</v>
       </c>
       <c r="E4" t="n">
-        <v>3.5631371909671</v>
+        <v>3.503457261524253</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>51.36007809733395</v>
+        <v>50.61818225923356</v>
       </c>
       <c r="D5" t="n">
-        <v>2.324414086272607</v>
+        <v>2.277920644494936</v>
       </c>
       <c r="E5" t="n">
-        <v>3.542764846126913</v>
+        <v>3.477697133557126</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.62393333308713</v>
+        <v>22.17046320725271</v>
       </c>
       <c r="D6" t="n">
-        <v>0.827538395451801</v>
+        <v>0.8524532550660653</v>
       </c>
       <c r="E6" t="n">
-        <v>1.35085020579131</v>
+        <v>1.390475261597858</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>47.46547231314563</v>
+        <v>47.00939592555671</v>
       </c>
       <c r="D7" t="n">
-        <v>2.165046257405356</v>
+        <v>2.137285076338278</v>
       </c>
       <c r="E7" t="n">
-        <v>3.623459467144274</v>
+        <v>3.582141306733691</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>48.603041662572</v>
+        <v>47.91559112787208</v>
       </c>
       <c r="D8" t="n">
-        <v>2.237708895735262</v>
+        <v>2.194927720974125</v>
       </c>
       <c r="E8" t="n">
-        <v>3.751192768857555</v>
+        <v>3.68480196128</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>48.35558520136347</v>
+        <v>47.60562476080082</v>
       </c>
       <c r="D9" t="n">
-        <v>2.222356890495998</v>
+        <v>2.17583668654877</v>
       </c>
       <c r="E9" t="n">
-        <v>3.727999845647979</v>
+        <v>3.655725765981864</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23.84534141273319</v>
+        <v>24.3687249098227</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8620148156061496</v>
+        <v>0.88554905669037</v>
       </c>
       <c r="E10" t="n">
-        <v>1.251062595157076</v>
+        <v>1.284269117375691</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>53.18074048097179</v>
+        <v>52.75480302971359</v>
       </c>
       <c r="D11" t="n">
-        <v>2.358117967151497</v>
+        <v>2.331882156161352</v>
       </c>
       <c r="E11" t="n">
-        <v>3.521044711045496</v>
+        <v>3.486788431938083</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>54.46013915984379</v>
+        <v>53.78776475579189</v>
       </c>
       <c r="D12" t="n">
-        <v>2.441942538526949</v>
+        <v>2.399305055834447</v>
       </c>
       <c r="E12" t="n">
-        <v>3.653130539413508</v>
+        <v>3.594359401752395</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>54.22513043860219</v>
+        <v>53.49015831099076</v>
       </c>
       <c r="D13" t="n">
-        <v>2.427129006900935</v>
+        <v>2.380662524938292</v>
       </c>
       <c r="E13" t="n">
-        <v>3.633398633647075</v>
+        <v>3.569248294464953</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.54600884810383</v>
+        <v>23.07832766890068</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8402226913085526</v>
+        <v>0.8643959354162353</v>
       </c>
       <c r="E14" t="n">
-        <v>1.266623277476028</v>
+        <v>1.302032069043363</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>49.90305923781154</v>
+        <v>49.4599332716938</v>
       </c>
       <c r="D15" t="n">
-        <v>2.245734139394167</v>
+        <v>2.21863096770107</v>
       </c>
       <c r="E15" t="n">
-        <v>3.481894346210957</v>
+        <v>3.44505948751649</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>51.10183274125587</v>
+        <v>50.42101905011774</v>
       </c>
       <c r="D16" t="n">
-        <v>2.323293201394882</v>
+        <v>2.280573881586833</v>
       </c>
       <c r="E16" t="n">
-        <v>3.608831719909732</v>
+        <v>3.547807696448059</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>50.85975589329749</v>
+        <v>50.11640977756953</v>
       </c>
       <c r="D17" t="n">
-        <v>2.308174218064424</v>
+        <v>2.26167652119432</v>
       </c>
       <c r="E17" t="n">
-        <v>3.587909870139113</v>
+        <v>3.521395467734218</v>
       </c>
     </row>
   </sheetData>
